--- a/Results/combinatorial_biochemical_markers_cv_results.xlsx
+++ b/Results/combinatorial_biochemical_markers_cv_results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>Biomarker</t>
   </si>
@@ -38,70 +38,73 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Urea*Lactate/TAG/Glucose</t>
-  </si>
-  <si>
-    <t>Urea*Lactate/Uric acid/MCFA</t>
-  </si>
-  <si>
-    <t>Cholesterol/Phosphate/Chloride</t>
-  </si>
-  <si>
-    <t>Urea*Phosphate/Uric acid/MCFA</t>
-  </si>
-  <si>
-    <t>Phosphate/Cholesterol</t>
-  </si>
-  <si>
-    <t>Cholesterol/Phosphate</t>
-  </si>
-  <si>
-    <t>Lactate*Phosphate/TAG/Glucose</t>
-  </si>
-  <si>
-    <t>Urea/Phosphate/MCFA</t>
+    <t>TAG*MCFA/Chloride/Uric acid</t>
+  </si>
+  <si>
+    <t>Uric acid/Lactate/Chloride</t>
+  </si>
+  <si>
+    <t>Uric acid/Lactate</t>
+  </si>
+  <si>
+    <t>Cholesterol*Glucose/Urea/Chloride</t>
+  </si>
+  <si>
+    <t>Creatinine*TAG/Urea/Lactate</t>
+  </si>
+  <si>
+    <t>Urea*Phosphate/Cholesterol/Chloride</t>
+  </si>
+  <si>
+    <t>Glucose/Cholesterol/MCFA</t>
+  </si>
+  <si>
+    <t>Chloride*Glucose/Cholesterol/MCFA</t>
+  </si>
+  <si>
+    <t>Creatinine*TAG/Phosphate/MCFA</t>
+  </si>
+  <si>
+    <t>Phosphate*Chloride/Urea/MCFA</t>
   </si>
   <si>
     <t>Creatinekinase / Myoglobin</t>
   </si>
   <si>
+    <t>Creatinekinase / AST</t>
+  </si>
+  <si>
+    <t>a*b/c/d</t>
+  </si>
+  <si>
+    <t>a/b/c</t>
+  </si>
+  <si>
+    <t>a/b</t>
+  </si>
+  <si>
+    <t>Urea*Glucose/Uric acid/MCFA</t>
+  </si>
+  <si>
+    <t>TAG*Phosphate/Urea/Uric acid</t>
+  </si>
+  <si>
+    <t>TAG*Chloride/Urea/Bilirubin</t>
+  </si>
+  <si>
+    <t>AST</t>
+  </si>
+  <si>
+    <t>Myoglobin / Albumin</t>
+  </si>
+  <si>
+    <t>Myoglobin</t>
+  </si>
+  <si>
+    <t>Creatinekinase</t>
+  </si>
+  <si>
     <t>Creatinekinase / Albumin</t>
-  </si>
-  <si>
-    <t>Creatinekinase</t>
-  </si>
-  <si>
-    <t>Creatinekinase / AST</t>
-  </si>
-  <si>
-    <t>a*b/c/d</t>
-  </si>
-  <si>
-    <t>a/b/c</t>
-  </si>
-  <si>
-    <t>a/b</t>
-  </si>
-  <si>
-    <t>Creatinine*Cholesterol/Phosphate/Chloride</t>
-  </si>
-  <si>
-    <t>Uric acid*MCFA/Urea/Glucose</t>
-  </si>
-  <si>
-    <t>Urea*Phosphate/Lactate/Bilirubin</t>
-  </si>
-  <si>
-    <t>Lactate*Bilirubin/Phosphate/MCFA</t>
-  </si>
-  <si>
-    <t>Myoglobin / Albumin</t>
-  </si>
-  <si>
-    <t>Myoglobin</t>
-  </si>
-  <si>
-    <t>AST</t>
   </si>
 </sst>
 </file>
@@ -496,19 +499,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.0574046878651309</v>
+        <v>0.06603705214433994</v>
       </c>
       <c r="D2">
-        <v>2.924030102757232</v>
+        <v>3.396640934170133</v>
       </c>
       <c r="E2">
-        <v>0.009952314646858128</v>
+        <v>0.01158618683698919</v>
       </c>
       <c r="F2">
-        <v>0.08118248812266234</v>
+        <v>0.09339049476166481</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -522,22 +525,22 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.05858886273911736</v>
+        <v>0.0683860554987341</v>
       </c>
       <c r="D3">
-        <v>2.944531064241442</v>
+        <v>3.451461884881513</v>
       </c>
       <c r="E3">
-        <v>0.007534749472220626</v>
+        <v>0.01265732793045395</v>
       </c>
       <c r="F3">
-        <v>0.08285716428967546</v>
+        <v>0.09671248716350896</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -548,22 +551,22 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.07441704959519252</v>
+        <v>0.06906046137364283</v>
       </c>
       <c r="D4">
-        <v>3.315750472656882</v>
+        <v>3.481285397069369</v>
       </c>
       <c r="E4">
-        <v>0.02011501112932257</v>
+        <v>0.01265961537271982</v>
       </c>
       <c r="F4">
-        <v>0.1052416008093125</v>
+        <v>0.09766624109834895</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,19 +577,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.07885032901666857</v>
+        <v>0.07555904654639897</v>
       </c>
       <c r="D5">
-        <v>3.426944419961367</v>
+        <v>3.784453826565477</v>
       </c>
       <c r="E5">
-        <v>0.02136268901041608</v>
+        <v>0.01709190277741509</v>
       </c>
       <c r="F5">
-        <v>0.1115112046929535</v>
+        <v>0.1068566283858974</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -597,25 +600,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.1275347907304945</v>
+        <v>0.07780894374576965</v>
       </c>
       <c r="D6">
-        <v>3.434368952186146</v>
+        <v>3.885581634161049</v>
       </c>
       <c r="E6">
-        <v>0.05675297616652164</v>
+        <v>0.01681941113863352</v>
       </c>
       <c r="F6">
-        <v>0.1803614307254797</v>
+        <v>0.1100384635191926</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -623,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.1290548362982155</v>
+        <v>0.07987177042385041</v>
       </c>
       <c r="D7">
-        <v>3.451826829854704</v>
+        <v>4.026951567241818</v>
       </c>
       <c r="E7">
-        <v>0.05781001178607616</v>
+        <v>0.02191226768302949</v>
       </c>
       <c r="F7">
-        <v>0.1825110997827759</v>
+        <v>0.1129557409841595</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -649,25 +652,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.1352820342435137</v>
+        <v>0.09024150866571086</v>
       </c>
       <c r="D8">
-        <v>3.564928731878968</v>
+        <v>4.55042850075436</v>
       </c>
       <c r="E8">
-        <v>0.06144380315610552</v>
+        <v>0.02703921666967039</v>
       </c>
       <c r="F8">
-        <v>0.1913176875725985</v>
+        <v>0.1276207654440575</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -675,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>0.1326787249436042</v>
+        <v>0.09608101215402495</v>
       </c>
       <c r="D9">
-        <v>3.610822210071357</v>
+        <v>4.78425516695315</v>
       </c>
       <c r="E9">
-        <v>0.06206367987719551</v>
+        <v>0.03569487259887365</v>
       </c>
       <c r="F9">
-        <v>0.1876360522536145</v>
+        <v>0.1358790704747563</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -701,22 +704,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>0.07121881523069849</v>
+        <v>0.09514042894876217</v>
       </c>
       <c r="D10">
-        <v>3.615992048508048</v>
+        <v>4.844840034750642</v>
       </c>
       <c r="E10">
-        <v>0.01424450250846927</v>
+        <v>0.0274305121561935</v>
       </c>
       <c r="F10">
-        <v>0.1007186143953974</v>
+        <v>0.1345488849493333</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -727,25 +730,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.06248063870197466</v>
+        <v>0.09579651565044887</v>
       </c>
       <c r="D11">
-        <v>3.617663779942507</v>
+        <v>4.911656499611948</v>
       </c>
       <c r="E11">
-        <v>0.01060453216202579</v>
+        <v>0.02952232215224667</v>
       </c>
       <c r="F11">
-        <v>0.08836096663806585</v>
+        <v>0.1354767316609513</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -789,25 +792,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.06248063870197466</v>
+        <v>0.06603705214433994</v>
       </c>
       <c r="D2">
-        <v>3.617663779942507</v>
+        <v>3.396640934170133</v>
       </c>
       <c r="E2">
-        <v>0.01060453216202579</v>
+        <v>0.01158618683698919</v>
       </c>
       <c r="F2">
-        <v>0.08836096663806585</v>
+        <v>0.09339049476166481</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -818,19 +821,19 @@
         <v>22</v>
       </c>
       <c r="C3">
-        <v>0.07157789414830343</v>
+        <v>0.09935275754076257</v>
       </c>
       <c r="D3">
-        <v>5.253379091498195</v>
+        <v>5.570640298767485</v>
       </c>
       <c r="E3">
-        <v>0.01416976414275955</v>
+        <v>0.02918520923699719</v>
       </c>
       <c r="F3">
-        <v>0.1012264286706365</v>
+        <v>0.1405060171733122</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -844,19 +847,19 @@
         <v>22</v>
       </c>
       <c r="C4">
-        <v>0.1189661538651076</v>
+        <v>0.1523164849762833</v>
       </c>
       <c r="D4">
-        <v>5.296214117260297</v>
+        <v>9.799476229774353</v>
       </c>
       <c r="E4">
-        <v>0.03781307115755729</v>
+        <v>0.1096508682328653</v>
       </c>
       <c r="F4">
-        <v>0.1682435482593996</v>
+        <v>0.2154080388264576</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
@@ -867,22 +870,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0.1394400594110453</v>
+        <v>0.2533572842399404</v>
       </c>
       <c r="D5">
-        <v>6.735419926104001</v>
+        <v>9.867769392789942</v>
       </c>
       <c r="E5">
-        <v>0.08276207395899846</v>
+        <v>0.2970803816595781</v>
       </c>
       <c r="F5">
-        <v>0.1971980231572103</v>
+        <v>0.358301307498139</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
@@ -893,22 +896,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>0.2199239380479431</v>
+        <v>0.4412184822422026</v>
       </c>
       <c r="D6">
-        <v>10.36011444156624</v>
+        <v>14.07395915572577</v>
       </c>
       <c r="E6">
-        <v>0.5300753743032185</v>
+        <v>1.097793979998262</v>
       </c>
       <c r="F6">
-        <v>0.3110194158779016</v>
+        <v>0.6239771615565954</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -919,22 +922,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.2628777809908741</v>
+        <v>0.2718078990755199</v>
       </c>
       <c r="D7">
-        <v>11.43117927744373</v>
+        <v>14.43708508804297</v>
       </c>
       <c r="E7">
-        <v>0.6246445023042885</v>
+        <v>0.4211757466140025</v>
       </c>
       <c r="F7">
-        <v>0.3717653231238384</v>
+        <v>0.3843944172327377</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -945,22 +948,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>0.4494014691768332</v>
+        <v>0.2819252981305337</v>
       </c>
       <c r="D8">
-        <v>11.73585803868879</v>
+        <v>16.17563400029136</v>
       </c>
       <c r="E8">
-        <v>1.966085584721948</v>
+        <v>0.2575681950291001</v>
       </c>
       <c r="F8">
-        <v>0.6355496526602717</v>
+        <v>0.3987025801922791</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
         <v>19</v>
